--- a/AAAGameData/DataTables/LevelTable.xlsx
+++ b/AAAGameData/DataTables/LevelTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\GF_HybridCLR\AAAGameData\DataTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GF_X\AAAGameData\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
